--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[User] Hieu\HCMUS\Year 4\Y4 - S1\Window\Project\MyShop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BB296B-169F-40D9-A1F6-1221FD801DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64999024-60F2-49BE-8363-941B13CC9C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2484" yWindow="192" windowWidth="17280" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -597,7 +597,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -627,7 +627,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
